--- a/medicine/Mort/Cimetière_ancien_de_Vincennes/Cimetière_ancien_de_Vincennes.xlsx
+++ b/medicine/Mort/Cimetière_ancien_de_Vincennes/Cimetière_ancien_de_Vincennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Vincennes</t>
+          <t>Cimetière_ancien_de_Vincennes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière ancien de Vincennes est un des deux cimetières de cette commune[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière ancien de Vincennes est un des deux cimetières de cette commune.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Vincennes</t>
+          <t>Cimetière_ancien_de_Vincennes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé entre la rue de Fontenay, le boulevard de la Libération, la rue des Sabotiers et l'avenue Gabriel-Péri.
-Le cimetière accueille un monument aux morts qui commémore les conflits : les guerres 1914-18,  1939-45 et AFN-Algérie (1954-62)[2].
+Le cimetière accueille un monument aux morts qui commémore les conflits : les guerres 1914-18,  1939-45 et AFN-Algérie (1954-62).
 			Monument aux morts.
 			Monument aux morts de la guerre franco-prussienne.
 			Tombe de Pierre Daumesnil.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Vincennes</t>
+          <t>Cimetière_ancien_de_Vincennes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 8 mars 1918, durant la première Guerre mondiale, l'ancien cimetière situé au no 1 rue de Fontenay est touché lors d'un raid effectué par des avions allemands[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 8 mars 1918, durant la première Guerre mondiale, l'ancien cimetière situé au no 1 rue de Fontenay est touché lors d'un raid effectué par des avions allemands.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Vincennes</t>
+          <t>Cimetière_ancien_de_Vincennes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,13 +593,15 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jean Berguerand, mort pour la France, emplacement D3A logement P1096[4],[5]. Natif de Vincennes, il a été choisi en 2019 pour rendre hommage aux 3300 soldats morts pendant la « Drôle de guerre », de septembre 1939 à mai 1940[6].
-Pierre Daumesnil[7] (1776-1832), général.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jean Berguerand, mort pour la France, emplacement D3A logement P1096,. Natif de Vincennes, il a été choisi en 2019 pour rendre hommage aux 3300 soldats morts pendant la « Drôle de guerre », de septembre 1939 à mai 1940.
+Pierre Daumesnil (1776-1832), général.
 Henri Descoins (1869-1930), général dans la cavalerie
 Alain Goison (1953-1992), comédien.
-Bérangère Lacoste-Marrier de Lagatinerie (1968-1991), actrice, fille du comédien Marc Porel et de l'actrice Bénédicte Lacoste (8e division, 1re Ligne, 14e tombe, concession 2954)[8] inhumée dans le caveau de sa famille maternelle.
+Bérangère Lacoste-Marrier de Lagatinerie (1968-1991), actrice, fille du comédien Marc Porel et de l'actrice Bénédicte Lacoste (8e division, 1re Ligne, 14e tombe, concession 2954) inhumée dans le caveau de sa famille maternelle.
 Charles Pathé (1863-1957), industriel et producteur de cinéma.
 Antoine Quinson (1904-1966), ancien maire de la ville.
 Maxime Villemer (1841-1923), romancière.</t>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Vincennes</t>
+          <t>Cimetière_ancien_de_Vincennes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Monuments inscrits</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un certain nombre de chapelles funéraires et de tombeaux sont inscrits à l'inventaire.
 			Chapelle Bénard Gaudet d'Avignon, tournant du XIXe et du XXe siècle.
